--- a/500all/speech_level/speeches_CHRG-114hhrg21645.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21645.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>409888</t>
   </si>
   <si>
-    <t>Bill Shuster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shuster. The committee will come to order. Welcome to today's hearing.    I want to thank Ranking Member DeFazio for bringing this important issue to our attention. And today's hearing will focus on two important issues, particularly. The first is the extent of FEMA's authority to implement the National Flood Insurance Program, and the second is the national implications of FEMA's implementation of the National Flood Insurance Program.    The committee has worked this Congress to understand what is driving the rise in disaster costs and losses, including particular policies that may not make much sense or may be rewarding bad behavior.    As we have seen recently with flooding in Louisiana and right in my home district in Connellsville and Bullskin Township, the National Flood Insurance Program is an important part of preparing communities for flood risks they face. We know that smart mitigation practices save the taxpayer at least $4 for every $1 invested.    It is important that local land-use and development decisions ultimately reside with local officials who understand the risks and challenges of a particular area. Additionally, it is critical that Federal agencies understand the limitations of their authorities and work within their authorities.    I look forward to hearing from our witnesses today.    And now I yield to the ranking member for an opening statement.</t>
   </si>
   <si>
     <t>400100</t>
   </si>
   <si>
-    <t>Peter A. DeFazio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeFazio. Thank you, Mr. Chairman. Thanks for holding this oversight hearing of the Federal Emergency Management Agency. And thanks to the witnesses who are here today.    As you stated earlier, the National Flood Insurance Program is critical in many areas. It's pretty simple. It says that, you know, the FEMA should develop minimum flood plain standards, and then it's up to local communities to enact laws that meet or exceed those in order to participate in the National Flood Insurance Program.    Now, in the particular case of Oregon, which, under this, is now being sort of nominated to be the poster child and the template for all the United States of America by certain agencies and groups, we have strict land-use planning. So the question becomes how are you going to overlay these new rules on top of our already strict land-use planning, which is designed to have compact urban growth?    But it also says you have to accommodate future needs. And therefore, you have to have enough buildable property. In all probability, we would have to blow up our law, do away with the idea of compact growth, and say, no, we are going to have sprawling growth like so many other places because the downtown core of many of our cities, which was intended to be redeveloped with higher densities, including the riverfront through Portland, where Oregon Health Sciences is building major new projects. Parts of downtown Eugene, an area called Glenwood between Eugene and Springfield, these areas would be pretty well precluded from redevelopment. Therefore, it appears that we would then begin to model ourselves after the rest of the country.    And somehow this is going to help the endangered species, according to the National Marine Fisheries Service. I give a--you know, we have a map that shows how many communities in Oregon would be affected, which they are going to put up. And you can see it is over 221 communities in Oregon would be affected--232.    It would--in the case of Coos Bay--if I could have the Coos Bay map--Coos Bay is a community, it has been struggling with a depressed economy for many years. There are some glimmers of hope and activity there. But this is what has been designated and which FEMA would restrict or prohibit development or redevelopment in that entire area.    That happens to be all of the downtown core--you can leave it up for a second, whoever took it down--that--that area, it does include the local newspaper building, which is critical salmon habitat. It does include Highway 101, critical salmon habitat. It does include some buildings that are well over 100 years old and need substantial renovation or actually would be replaced. But no, this area would be denied flood insurance unless they dramatically restrict or prohibit any redevelopment in that area, at least in an interim period, while FEMA develops rules to accommodate the so-called RPA.    So, we are going to have a number of witnesses here today to talk about this. You know, when I first came to Congress, there was--one of the early black helicopter conspiracy theories was about the Rockefeller Commission. And I said, ``Well, what is that?''    And they said, ``I have a plan to institute national land use--the Federal Government is going to usurp the police powers of the States under the Constitution, and is going to mandate national land-use planning.'' And I would always tell those people they were nuts. Well, maybe they weren't. That is why we are here today.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412469</t>
   </si>
   <si>
-    <t>Lou Barletta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you, Mr. Chairman.    Since the beginning of the 114th Congress, we have been exploring the rising costs of disasters in terms of both the loss of property and human life. At our first hearing in the 114th Congress, I stated that my top emergency management priority was pursuing disaster legislation that will save lives, lower costs, and launch a comprehensive review of Federal disaster policies and the rising costs of disasters.    Early last year, Ranking Member Carson and I introduced the FEMA Disaster Assistance Reform Act to call for the first comprehensive assessment of disaster costs and losses in over 20 years.    One of the most important pieces of our country's disaster assistance policy is linked to the National Flood Insurance Program, or the NFIP. So, today's hearing focusing on FEMA's authorities to implement the NFIP, and the extent that those authorities can impact local land-use and development decisions, is a critical element of that discussion.    I thank Ranking Member DeFazio for bringing this issue to the forefront so that we could bring the right people together to help us understand how some of the challenges being faced in Oregon will impact the entire Nation. I look forward to hearing from FEMA, the State and local officials, and our representatives from the National Association of Home Builders, about their current challenges and concerns regarding these issues. Thank you.</t>
   </si>
   <si>
@@ -85,18 +76,12 @@
     <t>412621</t>
   </si>
   <si>
-    <t>Carlos Curbelo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Curbelo. Chairman Shuster, Ranking Member DeFazio, thank you for yielding me time and, more importantly, thank you for holding a hearing on such an important topic as FEMA's role in the National Flood Insurance Program.    My south Florida district is almost completely surrounded by water, so this hearing is of particular importance to my constituents, which is why I am so proud to have with us today Mayor Heather Carruthers from Monroe County, Florida, on behalf of the National Association of Counties.    As the mayor of all of the Florida Keys, Ms. Carruthers brings to this hearing a unique insight on how flood insurance rates affect those who work and live in our coastal communities, not just those who come for vacation.    As a member of the Key West Chamber of Commerce, and as an instrumental founder of the Fair Insurance Rates in Monroe County, or FIRM, Mayor Carruthers has been an invaluable source of information to me and my staff, as we work together on addressing flood insurance rates and disaster mitigation. She is a steadfast leader in our community for working on behalf of her constituents and those residents who call the Keys home.    And fun fact: She has been a featured soloist with the Key West Pops and Island Opera Theatre. Also, recently, a charades partner with me--a very successful partnership, by the way, at a charity event--and, more importantly, Mayor Carruthers and her family recently welcomed a little boy to the world, Colin. So congratulations, and thank you so much for joining us today.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Carruthers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Carruthers. Thank you very much, Representative. It is a pleasure working with you.</t>
   </si>
   <si>
@@ -115,27 +100,18 @@
     <t>412258</t>
   </si>
   <si>
-    <t>André Carson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carson. Thank you, Chairman Shuster, Ranking Member DeFazio, Chairman Barletta.    You know, today's topic explores how the Endangered Species Act affects the Federal Emergency Management Agency's work in implementing the National Flood Insurance Act. Both of these laws are very essential, yet the interplay between these two laws raised several questions that we need to examine.    Congress directed FEMA to carry out the National Flood Insurance Program. But this morning we will have a conversation about the extent the National Marine Fisheries Service should be allowed to direct FEMA, if at all, on how FEMA carries out the NFIP. FEMA currently does not authorize, fund, or license private development on private lands. Yet the Fisheries Service is directing FEMA to either take or prohibit certain actions. That will result in FEMA being responsible for determining whether privately funded activities on private lands may occur.    So, the committee must examine whether FEMA should have this land-use authority, or regulatory authority. Now, the Fisheries Service is proposing that FEMA exercise its authority to prohibit most, if not all, private development in Oregon flood plains. If FEMA exercises its authority, we need to know whether it could be used nationwide.    On the surface, these issues seem to only apply in Oregon. But what I want to learn more about is whether these authorities and directives could be expanded elsewhere. We have several endangered species in Indiana that deserve protection, but we also have flood plains, and property owners who have resided in these flood plains for a long time, and who need flood insurance.    I look forward to learning more about the laws and processes involved here, as well as other issues, concerns, and suggestions for addressing these issues.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shuster. Thank you, Mr. Carson. And, with that, we will start our panel.    First, welcome to all of you for being here. We really appreciate you taking the time to testify with us today and help educate us.    Our first witness is Mr. Michael Grimm, the Assistant Administrator for Mitigation at FEMA. Mr. Grimm, you are recognized for your statement.</t>
   </si>
   <si>
-    <t>Grimm</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grimm. Thank you. Good morning, Chairman Shuster and Ranking Member DeFazio and members of the committee. My name is Michael Grimm, and I am the Assistant Administrator for Mitigation for the Federal Emergency Management Agency. Thank you for the opportunity to testify about FEMA's efforts to strengthen our National Flood Insurance Program compliance with the Endangered Species Act in Oregon, as well as the associated implications, nationwide.    In response to lawsuits brought under ESA, FEMA has been required, either by the courts or through settlement agreements with plaintiffs, to undertake consultations under the ESA on implementation of the NFIP in particular communities and regions. In consultations undertaken in Monroe County, Florida, the Puget Sound region of Washington, and in Oregon, the Services--in some cases the National Marine Fisheries Service, or NMFS, and in other cases the U.S. Fish and Wildlife Service--have found that the implementation of the NFIP in those areas was likely to jeopardize the continued existence of threatened and endangered species, and adversely modify designated critical habitat. When a jeopardy opinion is issued, the Services must also provide reasonable and prudent alternatives, if any, to a proposed action.    The RPA is a recommended set of program changes that will ensure a proposed action is implemented in a manner that will not jeopardize species, as well as the adverse modification of critical habitats.    Up until the consultation conducted with NMFS in Oregon, all of the RPAs from consultations had been able to be implemented, consistent with the NFIP and what we at FEMA call performance-based standards. FEMA uses performance-based standards to implement the NFIP throughout our 22,000 participating communities. FEMA recognizes that there are any number of ways in which a committee can meet the minimum flood plain management criteria established by FEMA for a community to participate in the NFIP.    Performance-based standards provide flexibility for communities to meet the requirements of the ESA in a way that makes sense to them. In like manner, the RPAs FEMA implemented prior to the Oregon consultation operated within this framework, allowing FEMA to work collaboratively with communities to ensure compliance with the requirements of the Endangered Species Act in a way that made sense to each individual community.    For example, FEMA's implementation of the RPA resulting from the Puget Sound Washington area consultation with NMFS provided communities flexibility to implement an approach to preserve ESA-listed species and their designated critical habitat in a manner that is consistent with local decisions and land use. While some communities chose to adopt a model ordinance to ensure compliance with the requirements of ESA, others have the flexibility to demonstrate through existing codes and standards that they are already meeting these important standards.    Still others chose a third option, demonstrating compliance on a permit-by-permit basis. The RPA resulting from the Oregon consultation with NMFS, however, is different. In Oregon, NMFS issued an RPA that differs from the Puget Sound performance-based standard approach, following a prescriptive approach, instead.    If implemented as written, the RPA in Oregon will result in expansion of areas mapped within the special flood hazard area to include areas likely to flood based on data reflecting the anticipated impacts of climate change, and will require enhanced regulatory flood plain management criteria going beyond the minimum standards currently required as a condition of participation in the National Flood Insurance Program.    Changing FEMA's regulations to accommodate these requirements of the RPA in Oregon will not only impact how FEMA administers the NFIP in Oregon, but across the Nation in all 22,000 communities that participate in the NFIP.    Environmental stewardship is an important responsibility, and FEMA is committed to doing everything within our authority to ensure that the NFIP is compliant with the ESA. At FEMA we believe in the whole-community approach in accomplishing our mission. As such, we will continue a close working relationship with NMFS and the U.S. Fish and Wildlife Service, as well as working with our State, local, and tribal partners to make sure we accomplish our goals.    Thank you for the opportunity to testify, and I look forward to answering any questions the committee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shuster. Thank you, Mr. Grimm. Now our next witness today is Ms. Chris Shirley, the National Flood Insurance Program coordinator for the Oregon Department of Land Conservation and Development.    Thank you for being here today.</t>
   </si>
   <si>
-    <t>Shirley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Shirley. Good morning, Chairman Shuster, Ranking Member DeFazio, and members of the committee. I am pleased to be here today to talk about this--to discuss Oregon's perspective on the reasonable and prudent alternatives. My name is Christine Shirley, and I work with communities directly on implementation of the National Flood Insurance Program in Oregon, as the State NFIP coordinator.    I am going to present an abbreviated version of some written testimony that I have submitted.    So, as Mr. DeFazio mentioned, Oregon has been a pioneer in implementing a statewide land-use program. This was implemented 40 years ago. And it preserves local control and responsibility for land-use decisions while establishing an overarching set of goals known as our 19 land-use planning goals, which, at its core, direct new development into towns and cities, protect rural areas for farm and forest use, and evaluate environmental impacts at the planning level, rather than at the permit-by-permit level that is the case in some States, many States.    So, now Oregon is at the forefront of a Federal directive through these reasonable and prudent alternatives to incorporate an additional layer of land-use management in the special flood hazard areas.    So I want to emphasize that the State of Oregon supports the principle of sound flood plain management, because we believe it protects people, property, habitat function, and economic vitality. And, as a result, the State has strenuously endeavored to be a good partner with our Federal counterparts at FEMA and the National Marine Fisheries Service during the multiyear consultation that resulted in the reasonable and prudent alternative, and will continue to participate vigorously in the years ahead.    And since the RPA was released in April, we have learned a few things, recognized a few challenges. And primary among the lessons is the importance of early involvement of the States and local governments in the crafting of any future reasonable and prudent alternatives.    The State was only allowed limited interaction with the Federal agencies during the consultation period, and we are now faced with a really difficult task of having to fit a consultation that didn't really involve us and doesn't really fit with the Oregon land-use planning system; we have to fit that RPA into our existing land-use program. It would have been easier if we had had the opportunity to do that fitting earlier on.    In the same vein, it is important now that FEMA involve local governments in the development of implementation strategies for the RPA, and that FEMA understand local government timelines and resources in setting their implementation targets for the RPA.    The State has been told by FEMA, for example, that they intend to develop guidance to implement interim measures set forth in the RPA by April of 2017, which is only 9 months away, and then have local governments adopt changes into their permitting programs to reflect that guidance. And that schedule of less than 2 years is not possible to be implemented for 232 communities in Oregon.    And likewise, the schedule for adopting revised flood insurance rate maps that are called for in the RPA over the next decade, it must pay attention to State and local processes and budgets and resources. And realistically, the State can't manage an aggressive map adoption process as called for in the RPA. And just by way of example, the FEMA map modernization program took over 10 years to implement in a much smaller number of communities.    To their credit, both FEMA and NMFS have emphasized outreach after the RPA was released, and scheduled immediately with us some webinars that local government and the State were involved in. And then we hosted 10 regional meetings throughout the State with FEMA and NMFS, where we talked about the RPA and heard from local governments what their concerns were.    And we learned many important things, such as the need to get credit and leverage Oregon's existing land-use planning program, to contextualize the RPA within the watershed management program, and not just focus directly on flood plains, develop a mitigation banking program, and to limit uncertainty around changing rules, maps, and timelines that can dampen development investment.    The State is concerned that the recommended changes to the flood plain mapping protocols as set forth in element 3 of the RPA would dramatically increase the footprint of the special flood hazard areas and regulation therein called for in the RPA, and----</t>
   </si>
   <si>
@@ -148,9 +124,6 @@
     <t xml:space="preserve">    Mr. Shuster. Thank you, Ms. Shirley. And with that, our next witness is the Honorable Denny Doyle, the mayor of the city of Beaverton, Oregon.    Thank you for being here today and proceed, Mr. Doyle.</t>
   </si>
   <si>
-    <t>Doyle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Doyle. Thank you. Good morning, Chairman Shuster and Ranking Member DeFazio. I am Denny Doyle, mayor of the city of Beaverton. I am also the incoming president of the Oregon League of Cities, as well as a board member of the National League of Cities. Beaverton is located just 2 short hours north of the majestic tall firs in Congressman DeFazio's Lane County. Thank you for the opportunity to appear before you today to discuss the FEMA role in implementing the National Flood Insurance Program in Oregon and throughout the United States.    As we all know, in 2009 FEMA was sued by environmental groups in Oregon for failing to ensure that the implementation of the NFIP complies with the Endangered Species Act. In response to the ruling, FEMA consulted with the National Marine Fisheries Service, resulting in the reasonable and prudent alternatives that aims to minimize impacts to ESA-listed species.    The final draft of the RPA calls for drastic expansion of an area to be protected beyond FEMA's current jurisdiction under the NFIP. If the new protected area is imposed on communities, it will have an unprecedented negative impact on economic growth, job creation, and new development as well as redevelopment, including affordable housing throughout Oregon.    These lawsuits are occurring in a piecemeal fashion around the country. I encourage Members of Congress to be aware that if the impacts you hear about today have not yet affected your congressional district, they almost surely will in the future. I have had the opportunity to meet with representatives from both FEMA and NMFS over the past several years in both Washington, DC, and Oregon to discuss this situation, and I truly remain dismayed at the end results of ESA consultation.    During development of the RPA, FEMA repeatedly stated their concerns with the ``major legal and practical issues concerning the RPA,'' and that the ``RPA provides little flexibility in how to achieve `no adverse effect.' '' Therefore, FEMA concluded that they were unsure how the RPA could be made ``fully implementable within FEMA's legal authorities.'' Yet here we are, with an RPA that FEMA and our local governments must implement.    We all agree that the protection of threatened and endangered species is a high priority. However, Beaverton is an urban community, one with very little undeveloped land left. In or next door to our community are major corporations such as Nike's world headquarters, Intel, Columbia Sportswear, to name just a few. Given the preponderance of many small streams that may contain threatened or endangered species, such stringent control of development in an arbitrarily enlarged flood area as proposed by the RPA could deter development for much of our community.    Without development or redevelopment by our business community, we cannot create new jobs or continue to improve our little part of the world. For example, a restaurant in Beaverton with a long history of shallow-flood damage--i.e., water in a parking lot--has recently been demolished and reconstructed. This pre-flood insurance rate map building has been rebuilt with a finished floor 2 feet higher than the base flood elevation. In other words, they lifted the ground 10 feet. This is smart, flood-resistant development. However, such a beneficial project could effectively be precluded in some way by the new RPA.    In another example, a previously developed area located within the RPA-expanded flood zone could not be redeveloped into affordable housing because of the additional costs. Significant employers and exporters will also likely be adversely impacted. In general, any development plans within the affected areas would require costly and time-consuming consultations with NMFS and FEMA, if they were allowed at all, and if they were affordable at all.    Finally, on a personal note, I am working hard to create an arts and culture center in downtown Beaverton, adjacent to Beaverton Creek. Twenty-plus years. Even though at this time ESA-listed species do not exist in the creek, the RPA will likely force us to implement significant RPA measures when developing and constructing the arts center. This is going to be built at no cost to the local taxpayers; it is a $45 million project. All of this comes at a cost, a significant one when just raising the funding to develop the arts center itself is a challenge on its own terms.    It should also be mentioned that we remain frustrated about the lack of opportunity to provide comments on the RPA--and thank you for this opportunity. The Congress should know that the iterations of the RPA for Oregon were developed in an apparent vacuum, one that does not respect nor serve the local communities that must ultimately comply with its mandates.    Simply put, the RPA developed by NMFS is unworkable in Oregon and for FEMA. It demands action that is unreasonable and potentially unenforceable by FEMA, all at little identifiable value to the species they aim to protect.    Thank you again for the opportunity to testify before you today. I am happy to answer questions later. And good luck to all of us that appropriate in November.</t>
   </si>
   <si>
@@ -163,9 +136,6 @@
     <t xml:space="preserve">    Mr. Shuster. Thank you, Commissioner Carruthers. And our final witness today is Mr. Jon Chandler, the chief executive officer of the Oregon Home Builders Association. He is testifying on behalf of the National Association of Home Builders.    Thank you for being here today, and please proceed with your statement.</t>
   </si>
   <si>
-    <t>Chandler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chandler. Thank you, Chair Shuster, Ranking Member DeFazio, members of the committee. I really appreciate the opportunity to come talk about what is happening with NFIP on behalf both of NAHB and my organization, the Oregon Home Builders. I am the CEO of the Oregon HBA. We are a State association of the National Home Builders, and this is an issue of great interest for us across the country.    I am going to address this morning, in addition to my written testimony, the land-use problems that are created by linking the Endangered Species Act with FEMA's National Flood Insurance Program. Quite simply, it is inappropriate to use the NFIP to protect endangered species. Doing it that way adds duplicative, burdensome, and costly regulatory barriers that will prevent the development of communities in a sensible and planned fashion. It will hurt well-paying jobs, and it will increase the price of housing beyond the means of many middle-class and working families.    Courts have held recently that FEMA must consult with the National Marine Fisheries Service concerning impacts of the NFIP on endangered species. In Oregon, as you have heard, NMFS issued a biological opinion dictating the implementation of NFIP. The State of Oregon and every city and county in Oregon has invested over 40 years in comprehensive statewide land-use planning, the money that goes along with that, the infrastructure planning and development that goes along with that. But with this NMFS BiOp, those efforts will be significantly undermined, if not completely undone.    The terms of the BiOp could result in large areas of land that can no longer be developed. Under Oregon law, local governments can be held accountable for that diminution in value. What we call measure 49 holds that any Government entity that downzones or reduces by regulatory measures the value of a piece of property must provide compensation to the property owner for that diminution in value.    Many communities simply will not have the resources to cover that, and may consider, as a result, dropping out of the NFIP. But due to the mandatory requirements for building for a homeowner in a flood plain, dropping out of the NFIP could result in the homeowner defaulting on their mortgage if they can't afford or access the high cost of private flood insurance.    The courts have ruled that both mapping and the NFIP's minimum eligibility requirement criteria are discretionary. And therefore, FEMA must consult with the National Marine Fisheries Service. NAHB's position is that those supporting components should be labeled nondiscretionary, and that FEMA should not be required to consult. The maps that FEMA prepares are based solely on technical evaluations of the base flood elevation. FEMA is drawing a line on a map based on science, math, and engineering. It cannot and should not be required to draw that line simply to benefit endangered species.    Under the NMFS BiOp, if a landowner or local government seeks changes or revisions to areas in existing flood plain maps, FEMA would not be able to process that request until the owner demonstrates that all potential impacts to endangered species or the flood plain have been fully mitigated.    FEMA does not authorize or approve the construction of structures or the replacement of fill in or around flood plains, and FEMA does not require what mitigation is required. FEMA's role is to ensure that the information depicted on the maps is accurate and scientifically sound.    NAHB also believes that the minimum eligibility criteria for communities to participate in NFIP should also be nondiscretionary. The BiOp requires the square footage of new structures to be 10 percent or less of the average lot size. And to give you a sense of that, in the Pacific States, according to the Census Bureau data, the average size of a lot is 6,525 square feet. Under this requirement in the BiOp, that reduces the size of a single-story home to 652 square feet.    Now, in Oregon, where the average lot sizes are 4,000 to 5,000 square feet and 2,500-square-foot lots are not uncommon, that same 10 percent coverage requirement would have houses with a first floor--or a one-story house of 250 square feet. Compared on a national basis, the average home size is 2,500 square feet. That sort of a 10-percent requirement will dramatically hinder growth in communities where families want to live, and tramples on local government zoning authorities.    These changes are occurring on a State-by-State basis, but they have national implications to the National Flood Insurance Program. Three States are currently engaged in consultation: Florida, California, and Arizona. There are billions of dollars of home value and remodeling costs at risk. For those States combined, NAHB estimates over $400 billion of home values and over $4 billion in remodeling spending is potentially at risk. Nationwide, that would be over $1 trillion. And we add in the proposal of the Atlantic sturgeon potentially to the protected species list, it is possible that States from Georgia to Maine may be next on the NMFS consultation list.    For a lot of homebuilders, we already have to go through section 7 consultation in the development process. That protects endangered species under existing law. That is currently on the books. We don't believe this adds anything.    And in conclusion, Mr. Chairman and Ranking Member, we appreciate very much the opportunity to put these concerns in front of you, and look forward to working with you, going forward. I would be glad to take any questions.</t>
   </si>
   <si>
@@ -355,9 +325,6 @@
     <t>412463</t>
   </si>
   <si>
-    <t>Bob Gibbs</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you, Mr. Chairman. I am tempted to yield my time to the ranking member, but I heard the next one is going to do that, so I am trying to understand this issue a little bit.    Mr. Chandler and Mr. Grimm, if a participating community made the choice to drop out of the National Flood Insurance Program, does that change a homebuilder's responsibility under the Endangered Species Act?</t>
   </si>
   <si>
@@ -424,9 +391,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you, Mr. Chairman. I am not sure which parts of the Endangered Species Act apply to my district, the Nation's capital, District of Columbia, except for Members of Congress who may be endangered in the upcoming election.    [Laughter.]</t>
   </si>
   <si>
@@ -472,9 +436,6 @@
     <t>412410</t>
   </si>
   <si>
-    <t>Daniel Webster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Webster. Thank you, Mr. Chairman. I had a question for Mr. Grimm. You mentioned ongoing consultation regarding the implementation of the NFIP in Florida. Can you briefly discuss the basis of that consultation?</t>
   </si>
   <si>
@@ -502,9 +463,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Mr. Chair. Thank you to the witnesses for being here.    So I want to just--I want to give an example of a real dilemma that a very, very poor city in my home county has. It is called South Bay. I am just going to go through some things that I think we have already said, but--to lead up to the story here.    So Congress created the National Flood Insurance Program, as we have been talking about, NFIP, in 1968 in order to make flood insurance reasonably available to all property owners. We know that homeowners who live in a federally designated flood plain must obtain flood insurance in order to qualify for a federally backed mortgage. And I think, also, there is--there are other mortgages--even private mortgages, in some cases, requires that also.    So, in order for--and, Honorable Carruthers, I think you mentioned this--in order for a community to participate in the NFIP, it must adopt FEMA's flood plain map and meet minimum standards and regulations to mitigate flood damage. The flood maps declare what land is within a 100-year flood plain. I want to emphasize that, so I guess meaning that areas which FEMA determines will flood once every 100 years, or has a, I guess, a 1-percent chance of flooding every year for 100 years. Is that right, the 1 percenter?</t>
   </si>
   <si>
@@ -550,9 +508,6 @@
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman, and I am glad I got to follow my colleague, Ms. Frankel. You know, 9 years with the Corps of Engineers is like a 100-yard dash.    [Laughter.]</t>
   </si>
   <si>
@@ -643,9 +598,6 @@
     <t>412454</t>
   </si>
   <si>
-    <t>Richard L. Hanna</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hanna. I am going to yield my time to the ranking member, Mr. DeFazio.</t>
   </si>
   <si>
@@ -733,9 +685,6 @@
     <t>412655</t>
   </si>
   <si>
-    <t>Brian Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Babin. Thank you very much, Mr. Chairman. Local officials in my district in La Porte, Texas, have expressed to me their concerns about FEMA rules regarding properties that are bought out via the FEMA program to purchase homes that have experienced repetitive losses as a result of flooding. And we have seen quite a bit of it over the last few years there.    FEMA rules prevent the property from being redeveloped in a manner that would not eliminate the risk of further property loss. So removal of these properties also permanently reduces the tax rolls for these municipalities, and also the revenue for communities that are not able to expand their boundaries.    They have also told me that FEMA's enforcement of property maintenance guidelines for those properties they have purchased has been seriously inadequate, as properties have not been kept up to local community standards. Frequently, the properties are overrun with weeds and grass and violation of local property maintenance codes.    So, Administrator Grimm, I would ask you. What are your thoughts in revisiting this program to give local communities an opportunity to reacquire and redevelop these properties so that they can be better put to use?</t>
   </si>
   <si>
@@ -773,9 +722,6 @@
   </si>
   <si>
     <t>412651</t>
-  </si>
-  <si>
-    <t>Ryan A. Costello</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chair. By the way of brief background, I used to be a township supervisor in Chester County, and we handled all land-use approvals. I then went on to be a county commissioner in Chester County. I see we have the NACo letterhead here; I was a proud member of NACo. But I never--I also was an attorney, a land-use lawyer who regularly dealt with regulations in terms of ultimately getting a project to the approval stage.    I share that with you because it is usually the case that a developer and a municipal official will find ways to disagree with one another during the course of an application. So the fact that you have NACo here and you have the homebuilders here, both saying that this is highly problematic, I think is very, very telling.    It concerns me that the status quo, as it exists right now, is not going to work, moving forward. It is simply unmanageable, and it is only going to get worse. And when you have RPAs that, for all intents and purposes--and I agree with the assertion by FEMA that additional set-aside land outside of the flood plain is outside of your jurisdiction, and yet you are being told, even though you have jurisdiction, that you must do that, I think that is highly problematic.    And what is going to continue to happen, or what is at least plausible, and I would submit as predictable, is what is happening is you will have an organization come in, file suit, if for no other reason than to simply expand the amount of developable--excuse me, to reduce the amount of developable land. And by developable land, I mean private property. And to Dr. Babin's point, land that comes off the tax rolls.    I don't understand how FEMA must essentially subordinate jurisdiction on this issue. And I just want to share a couple other points I found relevant, and then I will just open up to whomever would like to respond.    And most particularly comes from the--from NACo, from the mayor. Although participation in NFIP is technically voluntary, ``local governments have little choice but to comply with the participation requirements.'' In this way, participation requirements effectively serve as Federal regulations that force local governments to adjust their policies in order to maintain eligibility for the program.    That is one thing that you must deal with FEMA. And I don't mean this to be disrespectful towards FEMA, but there have been many times, as local officials, we voice frustration with FEMA. Not in your emergency response, but as it particularly relates to the flood plain management program. Now it is only going to become more frustrating. And it is not FEMA's fault, it is who FEMA has to deal with as a third party.    So I will invite any of you to pick up where I left off. But let me just say for the record this is not going to work, moving forward. Like, this will persist and it will essentially--and it will become, it already has become, a tactic that is going to be used in every single community, in every single State across this country, until we sit back and say, ``OK, somewhere along the line things went askew. How do we fix it?'' I think we need to fix it now.    I do think that there is a preemption issue here, where FEMA essentially needs to reassert its jurisdiction and the ESA cannot find its way in the middle of how we go about delineating flood plains and implementing the flood insurance program. Forty seconds.</t>
@@ -1330,11 +1276,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1354,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1382,11 +1324,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1406,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1434,11 +1372,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1458,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1484,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1512,11 +1444,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1536,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1564,11 +1492,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1590,11 +1516,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1614,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1642,11 +1564,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1666,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1694,11 +1612,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1718,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1746,11 +1660,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1770,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1798,11 +1708,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1822,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1850,11 +1756,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1874,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1902,11 +1804,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1926,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s">
-        <v>49</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1954,11 +1852,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1978,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2004,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2030,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2056,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2082,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2108,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2134,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2160,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2186,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2212,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2238,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2264,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2290,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2316,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2342,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2368,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2394,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2420,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2446,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2472,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2498,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2524,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2550,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2576,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2602,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2628,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2654,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2680,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2706,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2732,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2758,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2784,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2810,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2836,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2862,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2888,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2914,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2940,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2966,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2992,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3018,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3044,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3070,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3096,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3122,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" t="s">
-        <v>49</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3148,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3174,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3200,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3226,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3252,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3278,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3304,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" t="s">
-        <v>49</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3330,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3356,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3382,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3408,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3434,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3460,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
-      </c>
-      <c r="G84" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3486,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" t="s">
-        <v>44</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3512,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
-      </c>
-      <c r="G86" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3538,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3564,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>112</v>
-      </c>
-      <c r="G88" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3590,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3616,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" t="s">
-        <v>49</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3642,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>112</v>
-      </c>
-      <c r="G91" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3668,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3694,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>112</v>
-      </c>
-      <c r="G93" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3720,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3746,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
-      </c>
-      <c r="G95" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3772,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
-      </c>
-      <c r="G96" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3798,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
+        <v>102</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
         <v>112</v>
-      </c>
-      <c r="G97" t="s">
-        <v>113</v>
-      </c>
-      <c r="H97" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3824,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3850,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>112</v>
-      </c>
-      <c r="G99" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3876,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3902,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>112</v>
-      </c>
-      <c r="G101" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3928,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3954,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>112</v>
-      </c>
-      <c r="G103" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3980,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
-      </c>
-      <c r="G104" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4006,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>112</v>
-      </c>
-      <c r="G105" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4032,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4058,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>112</v>
-      </c>
-      <c r="G107" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4084,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4110,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>135</v>
-      </c>
-      <c r="G109" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4136,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4162,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>25</v>
-      </c>
-      <c r="G111" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4188,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>135</v>
-      </c>
-      <c r="G112" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4214,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
-      </c>
-      <c r="G113" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4240,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>135</v>
-      </c>
-      <c r="G114" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4266,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>25</v>
-      </c>
-      <c r="G115" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4292,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>135</v>
-      </c>
-      <c r="G116" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4318,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>25</v>
-      </c>
-      <c r="G117" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4344,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>135</v>
-      </c>
-      <c r="G118" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4370,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
-      </c>
-      <c r="G119" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4396,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>135</v>
-      </c>
-      <c r="G120" t="s">
+        <v>124</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
         <v>136</v>
-      </c>
-      <c r="H120" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4422,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4448,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4474,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>151</v>
-      </c>
-      <c r="G123" t="s">
-        <v>152</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4500,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>25</v>
-      </c>
-      <c r="G124" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4526,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>151</v>
-      </c>
-      <c r="G125" t="s">
-        <v>152</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4552,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>25</v>
-      </c>
-      <c r="G126" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4578,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>151</v>
-      </c>
-      <c r="G127" t="s">
-        <v>152</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4604,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>25</v>
-      </c>
-      <c r="G128" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4630,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>151</v>
-      </c>
-      <c r="G129" t="s">
-        <v>152</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4656,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4682,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>161</v>
-      </c>
-      <c r="G131" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4708,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>25</v>
-      </c>
-      <c r="G132" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4734,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>161</v>
-      </c>
-      <c r="G133" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4760,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>25</v>
-      </c>
-      <c r="G134" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4786,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>161</v>
-      </c>
-      <c r="G135" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4812,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>25</v>
-      </c>
-      <c r="G136" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4838,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>161</v>
-      </c>
-      <c r="G137" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4864,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>25</v>
-      </c>
-      <c r="G138" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4890,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>161</v>
-      </c>
-      <c r="G139" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4916,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G140" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4942,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>161</v>
-      </c>
-      <c r="G141" t="s">
-        <v>162</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4968,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>25</v>
-      </c>
-      <c r="G142" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4994,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
+        <v>148</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
         <v>161</v>
-      </c>
-      <c r="G143" t="s">
-        <v>162</v>
-      </c>
-      <c r="H143" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5020,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5046,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>177</v>
-      </c>
-      <c r="G145" t="s">
-        <v>178</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5072,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>177</v>
-      </c>
-      <c r="G146" t="s">
-        <v>178</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5098,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>25</v>
-      </c>
-      <c r="G147" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5124,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>177</v>
-      </c>
-      <c r="G148" t="s">
-        <v>178</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5150,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>177</v>
-      </c>
-      <c r="G149" t="s">
-        <v>178</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5176,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>25</v>
-      </c>
-      <c r="G150" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5202,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>177</v>
-      </c>
-      <c r="G151" t="s">
-        <v>178</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5228,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>25</v>
-      </c>
-      <c r="G152" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5254,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>177</v>
-      </c>
-      <c r="G153" t="s">
-        <v>178</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5280,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>25</v>
-      </c>
-      <c r="G154" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5306,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>177</v>
-      </c>
-      <c r="G155" t="s">
-        <v>178</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5332,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>25</v>
-      </c>
-      <c r="G156" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5358,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>177</v>
-      </c>
-      <c r="G157" t="s">
-        <v>178</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5384,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>25</v>
-      </c>
-      <c r="G158" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5410,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>177</v>
-      </c>
-      <c r="G159" t="s">
+        <v>163</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
         <v>178</v>
-      </c>
-      <c r="H159" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5436,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>25</v>
-      </c>
-      <c r="G160" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5462,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>177</v>
-      </c>
-      <c r="G161" t="s">
-        <v>178</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5488,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>25</v>
-      </c>
-      <c r="G162" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5514,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>177</v>
-      </c>
-      <c r="G163" t="s">
-        <v>178</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5540,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>25</v>
-      </c>
-      <c r="G164" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5566,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5592,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>22</v>
-      </c>
-      <c r="G166" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5618,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>25</v>
-      </c>
-      <c r="G167" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5644,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>22</v>
-      </c>
-      <c r="G168" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5670,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>25</v>
-      </c>
-      <c r="G169" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5696,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5722,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>25</v>
-      </c>
-      <c r="G171" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5748,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>22</v>
-      </c>
-      <c r="G172" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5774,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5800,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>208</v>
-      </c>
-      <c r="G174" t="s">
-        <v>209</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5826,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5852,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>25</v>
-      </c>
-      <c r="G176" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5878,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5904,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>25</v>
-      </c>
-      <c r="G178" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5930,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5956,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>25</v>
-      </c>
-      <c r="G180" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5982,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6008,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>25</v>
-      </c>
-      <c r="G182" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6034,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6060,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>25</v>
-      </c>
-      <c r="G184" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6086,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6112,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>25</v>
-      </c>
-      <c r="G186" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6138,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6164,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>25</v>
-      </c>
-      <c r="G188" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6190,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
-      </c>
-      <c r="G189" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6216,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>25</v>
-      </c>
-      <c r="G190" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6242,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>14</v>
-      </c>
-      <c r="G191" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6268,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>25</v>
-      </c>
-      <c r="G192" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6294,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6320,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>25</v>
-      </c>
-      <c r="G194" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6346,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
-      </c>
-      <c r="G195" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6372,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>25</v>
-      </c>
-      <c r="G196" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6398,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>14</v>
-      </c>
-      <c r="G197" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6424,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>25</v>
-      </c>
-      <c r="G198" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6450,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
-      </c>
-      <c r="G199" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6476,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>25</v>
-      </c>
-      <c r="G200" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6502,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>14</v>
-      </c>
-      <c r="G201" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6528,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6554,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>238</v>
-      </c>
-      <c r="G203" t="s">
-        <v>239</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6580,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>25</v>
-      </c>
-      <c r="G204" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6606,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>238</v>
-      </c>
-      <c r="G205" t="s">
-        <v>239</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6632,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>25</v>
-      </c>
-      <c r="G206" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6658,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>238</v>
-      </c>
-      <c r="G207" t="s">
-        <v>239</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6684,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>25</v>
-      </c>
-      <c r="G208" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6710,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>238</v>
-      </c>
-      <c r="G209" t="s">
-        <v>239</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6736,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>25</v>
-      </c>
-      <c r="G210" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6762,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>238</v>
-      </c>
-      <c r="G211" t="s">
-        <v>239</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6788,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>25</v>
-      </c>
-      <c r="G212" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6814,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>238</v>
-      </c>
-      <c r="G213" t="s">
-        <v>239</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6840,13 +6362,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6866,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>252</v>
-      </c>
-      <c r="G215" t="s">
-        <v>253</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6892,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>25</v>
-      </c>
-      <c r="G216" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6918,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>252</v>
-      </c>
-      <c r="G217" t="s">
-        <v>253</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6944,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>25</v>
-      </c>
-      <c r="G218" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6970,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>252</v>
-      </c>
-      <c r="G219" t="s">
-        <v>253</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6996,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>25</v>
-      </c>
-      <c r="G220" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7022,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>252</v>
-      </c>
-      <c r="G221" t="s">
-        <v>253</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7048,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>25</v>
-      </c>
-      <c r="G222" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7074,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>252</v>
-      </c>
-      <c r="G223" t="s">
-        <v>253</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7100,13 +6602,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>18</v>
-      </c>
-      <c r="G224" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7126,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>25</v>
-      </c>
-      <c r="G225" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7152,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>25</v>
-      </c>
-      <c r="G226" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7178,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>25</v>
-      </c>
-      <c r="G227" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7204,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>25</v>
-      </c>
-      <c r="G228" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7230,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>25</v>
-      </c>
-      <c r="G229" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7256,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>25</v>
-      </c>
-      <c r="G230" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7282,13 +6770,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>25</v>
-      </c>
-      <c r="G231" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7308,13 +6794,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>25</v>
-      </c>
-      <c r="G232" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7334,13 +6818,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>25</v>
-      </c>
-      <c r="G233" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7360,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>25</v>
-      </c>
-      <c r="G234" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7386,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>25</v>
-      </c>
-      <c r="G235" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7412,13 +6890,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>25</v>
-      </c>
-      <c r="G236" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7438,13 +6914,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>25</v>
-      </c>
-      <c r="G237" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7464,13 +6938,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>25</v>
-      </c>
-      <c r="G238" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7490,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>25</v>
-      </c>
-      <c r="G239" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7516,13 +6986,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>25</v>
-      </c>
-      <c r="G240" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7542,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>25</v>
-      </c>
-      <c r="G241" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7568,13 +7034,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>18</v>
-      </c>
-      <c r="G242" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7594,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>14</v>
-      </c>
-      <c r="G243" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7620,13 +7082,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7646,13 +7106,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>14</v>
-      </c>
-      <c r="G245" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7672,13 +7130,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>25</v>
-      </c>
-      <c r="G246" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7698,13 +7154,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G247" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7724,13 +7178,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>25</v>
-      </c>
-      <c r="G248" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7750,13 +7202,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>14</v>
-      </c>
-      <c r="G249" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7776,13 +7226,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>25</v>
-      </c>
-      <c r="G250" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7802,13 +7250,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>14</v>
-      </c>
-      <c r="G251" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7828,13 +7274,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>25</v>
-      </c>
-      <c r="G252" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7854,13 +7298,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>14</v>
-      </c>
-      <c r="G253" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7880,13 +7322,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>25</v>
-      </c>
-      <c r="G254" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7906,13 +7346,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>14</v>
-      </c>
-      <c r="G255" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7932,13 +7370,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>25</v>
-      </c>
-      <c r="G256" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7958,13 +7394,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>14</v>
-      </c>
-      <c r="G257" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7984,13 +7418,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>25</v>
-      </c>
-      <c r="G258" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8010,13 +7442,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>14</v>
-      </c>
-      <c r="G259" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8036,13 +7466,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>25</v>
-      </c>
-      <c r="G260" t="s">
-        <v>49</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8062,13 +7490,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>14</v>
-      </c>
-      <c r="G261" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8088,13 +7514,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>25</v>
-      </c>
-      <c r="G262" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8114,13 +7538,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>14</v>
-      </c>
-      <c r="G263" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8140,13 +7562,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>25</v>
-      </c>
-      <c r="G264" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8166,13 +7586,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>14</v>
-      </c>
-      <c r="G265" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8192,13 +7610,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>25</v>
-      </c>
-      <c r="G266" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8218,13 +7634,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>14</v>
-      </c>
-      <c r="G267" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8244,13 +7658,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>18</v>
-      </c>
-      <c r="G268" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
